--- a/doc/标准库国家计算结果（默认版本）/机构数据307473238584/出生队列接种率/截止2025-12-30 出生队列接种率.xlsx
+++ b/doc/标准库国家计算结果（默认版本）/机构数据307473238584/出生队列接种率/截止2025-12-30 出生队列接种率.xlsx
@@ -679,7 +679,7 @@
     <row r="2" customHeight="true" ht="35.0">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>查询条件   地区:   全 国   |    出生截止时间:   2025-12  月末   |    出生队列数来源:   系统报告   |    出生队列:   1岁  2岁  3岁  4岁  5岁  6岁  7岁  8岁  9岁  10岁  11岁  12岁  13岁  14岁  15岁  16岁  17岁  18岁   |    数据类型:   交换数据   |    上传截止日期:   2025-11-03  （有效数据为交换上传时间早于所选日期当日 23 时 59 分 59 秒;）   |</t>
+          <t>查询条件   地区:   全 国   |    出生截止时间:   2025-12  月末   |    出生队列数来源:   系统报告   |    出生队列:   1岁  2岁  3岁  4岁  5岁  6岁  7岁  8岁  9岁  10岁  11岁  12岁  13岁  14岁  15岁  16岁  17岁  18岁   |    数据类型:   交换数据   |    上传截止日期:   2025-11-04  （有效数据为交换上传时间早于所选日期当日 23 时 59 分 59 秒;）   |</t>
         </is>
       </c>
       <c r="B2" s="4"/>
@@ -723,7 +723,7 @@
     <row r="3" customHeight="true" ht="35.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>导出时间: 2025-11-04 15:18:42</t>
+          <t>导出时间: 2025-11-05 14:37:29</t>
         </is>
       </c>
       <c r="B3" s="4"/>
@@ -1190,109 +1190,109 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="9" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>178</t>
         </is>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="9" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>190</t>
         </is>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="9" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>223</t>
         </is>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="9" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>324</t>
         </is>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="9" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>354</t>
         </is>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="9" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>426</t>
         </is>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>441</t>
         </is>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="9" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>410</t>
         </is>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="9" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>464</t>
         </is>
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="9" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>452</t>
         </is>
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="9" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>555</t>
         </is>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AF7" s="5"/>
       <c r="AG7" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AL7" s="5"/>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="AD32" s="9" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>2.86%</t>
         </is>
       </c>
       <c r="AE32" s="9" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="AF32" s="9" t="inlineStr">
         <is>
-          <t>12.50%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AG32" s="9" t="inlineStr">
